--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/40.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/40.xlsx
@@ -479,13 +479,13 @@
         <v>0.002744893354850516</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.605367958989913</v>
+        <v>-1.604413316392844</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06121607879622593</v>
+        <v>0.06158754730885289</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1873640389734278</v>
+        <v>-0.1877370815051761</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.04320667627175571</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.540874886523299</v>
+        <v>-1.540176022033442</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08713230362844175</v>
+        <v>0.08763913778550057</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1886468645572879</v>
+        <v>-0.1889537982859415</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.0834378144853602</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.647210109291449</v>
+        <v>-1.647184924985508</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1000093540598027</v>
+        <v>0.100524058312468</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1863991652520705</v>
+        <v>-0.186841464625156</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1172510217131241</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.695433333110738</v>
+        <v>-1.695360141221598</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1424102811494006</v>
+        <v>0.1430099824346162</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2172908645267178</v>
+        <v>-0.2176607590202234</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1502694321482898</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.781524308950279</v>
+        <v>-1.781748606675065</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2302499922327068</v>
+        <v>0.2311928296863659</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2661421219754059</v>
+        <v>-0.2669181134022072</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1908249802204764</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.708135667419635</v>
+        <v>-1.708104187037209</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3036874283561117</v>
+        <v>0.3046412839436199</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2768375819046441</v>
+        <v>-0.2773491381190668</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.2448019785940912</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.538352520881415</v>
+        <v>-1.538690147982934</v>
       </c>
       <c r="F8" t="n">
-        <v>0.37435773886427</v>
+        <v>0.3752328934957131</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2793890669002725</v>
+        <v>-0.2800895054092513</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.3112975272404881</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.182506935042922</v>
+        <v>-1.183297092641815</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4046906613508555</v>
+        <v>0.4055532238293283</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2749220006340212</v>
+        <v>-0.2755563303399053</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.3878924281127403</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7847735523483761</v>
+        <v>-0.7861996136722744</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4436350424500771</v>
+        <v>0.4448155567910527</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2355746706397466</v>
+        <v>-0.2363774203916099</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.4740789485226372</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2591991236313486</v>
+        <v>-0.2607526805040724</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4149564140599786</v>
+        <v>0.4166516326536194</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1776822473583073</v>
+        <v>-0.1786345289266942</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.5697908045407688</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3121918536684993</v>
+        <v>0.3104305262717638</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2887625790479386</v>
+        <v>0.2907285289304431</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1236933914976937</v>
+        <v>-0.1249274224887934</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.6736858178495166</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8947504966339755</v>
+        <v>0.8926491811070392</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09341106590331019</v>
+        <v>0.09532507315481183</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01031364615216253</v>
+        <v>-0.01147527226368244</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.7865584734350098</v>
       </c>
       <c r="E14" t="n">
-        <v>1.598355932084839</v>
+        <v>1.596256190577023</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01201853714085163</v>
+        <v>0.01466288926463678</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08728813152145051</v>
+        <v>0.08627761124557548</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.9090246044801904</v>
       </c>
       <c r="E15" t="n">
-        <v>2.263172814329489</v>
+        <v>2.262033224485667</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.131007858354378</v>
+        <v>-0.1279542612590546</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2043353414196123</v>
+        <v>0.2031516790403941</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.040578817979938</v>
       </c>
       <c r="E16" t="n">
-        <v>2.86388934187829</v>
+        <v>2.862760770168317</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2572127115002671</v>
+        <v>-0.2533421984809887</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3080033887867182</v>
+        <v>0.3066025117687606</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.182012261267948</v>
       </c>
       <c r="E17" t="n">
-        <v>3.400741617599436</v>
+        <v>3.399339166562358</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3699030364706686</v>
+        <v>-0.3649118218370241</v>
       </c>
       <c r="G17" t="n">
-        <v>0.393145231096115</v>
+        <v>0.3916829673324266</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.333994496214186</v>
       </c>
       <c r="E18" t="n">
-        <v>3.87335502494206</v>
+        <v>3.871779431801638</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.548954007595107</v>
+        <v>-0.5433662397144896</v>
       </c>
       <c r="G18" t="n">
-        <v>0.489752228685066</v>
+        <v>0.4878193332041088</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.496613378802599</v>
       </c>
       <c r="E19" t="n">
-        <v>4.249051352928836</v>
+        <v>4.247585941126905</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7507527030605829</v>
+        <v>-0.7447336539407291</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6116426954194699</v>
+        <v>0.6092800927183976</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.668831681758901</v>
       </c>
       <c r="E20" t="n">
-        <v>4.524761264273228</v>
+        <v>4.522932254054277</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.958558642502503</v>
+        <v>-0.9520185930534987</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7181014786886419</v>
+        <v>0.7158994259379423</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.843206245274781</v>
       </c>
       <c r="E21" t="n">
-        <v>4.733191302296744</v>
+        <v>4.73065713151145</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.079448820085321</v>
+        <v>-1.072279949997356</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8611310222221141</v>
+        <v>0.8593020120031628</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.005297855304904</v>
       </c>
       <c r="E22" t="n">
-        <v>4.880053582390583</v>
+        <v>4.87745959887868</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.247504480637913</v>
+        <v>-1.240222281173215</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9621374032551006</v>
+        <v>0.9601651572961108</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.144422941525066</v>
       </c>
       <c r="E23" t="n">
-        <v>4.926502886660167</v>
+        <v>4.923543730712121</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.498293734244312</v>
+        <v>-1.491302728317055</v>
       </c>
       <c r="G23" t="n">
-        <v>1.015556464193803</v>
+        <v>1.013321357041556</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.255981272263396</v>
       </c>
       <c r="E24" t="n">
-        <v>4.976319017830212</v>
+        <v>4.972945894853265</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.706066619284685</v>
+        <v>-1.699475414214238</v>
       </c>
       <c r="G24" t="n">
-        <v>1.112139851495935</v>
+        <v>1.110025943816028</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.339932236203329</v>
       </c>
       <c r="E25" t="n">
-        <v>4.942800280642114</v>
+        <v>4.938895139202167</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.866987251160421</v>
+        <v>-1.860228413053556</v>
       </c>
       <c r="G25" t="n">
-        <v>1.159385609440896</v>
+        <v>1.157342532621448</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.397526586945902</v>
       </c>
       <c r="E26" t="n">
-        <v>4.930949490677841</v>
+        <v>4.927110458040989</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.928983142291091</v>
+        <v>-1.922022042727139</v>
       </c>
       <c r="G26" t="n">
-        <v>1.188511259261444</v>
+        <v>1.186414665791872</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.431724191907534</v>
       </c>
       <c r="E27" t="n">
-        <v>4.836799536937241</v>
+        <v>4.832820416598592</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.015443225614578</v>
+        <v>-2.008529346624264</v>
       </c>
       <c r="G27" t="n">
-        <v>1.208644537842001</v>
+        <v>1.20660933111816</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.442789277491597</v>
       </c>
       <c r="E28" t="n">
-        <v>4.719480021731094</v>
+        <v>4.715584324405874</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.080576136854</v>
+        <v>-2.073875537454623</v>
       </c>
       <c r="G28" t="n">
-        <v>1.197127439931444</v>
+        <v>1.195103251341451</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.429134152693911</v>
       </c>
       <c r="E29" t="n">
-        <v>4.596744306728551</v>
+        <v>4.592782500600237</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.17359987991331</v>
+        <v>-2.167832673852864</v>
       </c>
       <c r="G29" t="n">
-        <v>1.162431336440613</v>
+        <v>1.160586586030449</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.393137439697539</v>
       </c>
       <c r="E30" t="n">
-        <v>4.493274585770729</v>
+        <v>4.489223060552502</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.176111227421345</v>
+        <v>-2.17058720731514</v>
       </c>
       <c r="G30" t="n">
-        <v>1.115693986671832</v>
+        <v>1.11357378291544</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.335655558035491</v>
       </c>
       <c r="E31" t="n">
-        <v>4.306073343636196</v>
+        <v>4.302413749179172</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.140443167123111</v>
+        <v>-2.135621159545007</v>
       </c>
       <c r="G31" t="n">
-        <v>1.04944824391365</v>
+        <v>1.047490164126752</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.256117904535519</v>
       </c>
       <c r="E32" t="n">
-        <v>4.120628706841034</v>
+        <v>4.117228825539025</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.058671299752419</v>
+        <v>-2.053894151719271</v>
       </c>
       <c r="G32" t="n">
-        <v>1.022554553207106</v>
+        <v>1.020638971936483</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.157357308822754</v>
       </c>
       <c r="E33" t="n">
-        <v>3.904740966220796</v>
+        <v>3.90129701238339</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.002651172215767</v>
+        <v>-1.998329702718236</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9405780633506451</v>
+        <v>0.9389269172924006</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.043621127487575</v>
       </c>
       <c r="E34" t="n">
-        <v>3.690801861272727</v>
+        <v>3.687523179443058</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.903266817887281</v>
+        <v>-1.898754105066512</v>
       </c>
       <c r="G34" t="n">
-        <v>0.849854749237116</v>
+        <v>0.8480572194005906</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.91956114198585</v>
       </c>
       <c r="E35" t="n">
-        <v>3.451672154307363</v>
+        <v>3.448182553915439</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.83953950572318</v>
+        <v>-1.834999247567788</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7804027295288445</v>
+        <v>0.7786917707439907</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.789799247309914</v>
       </c>
       <c r="E36" t="n">
-        <v>3.217601344797859</v>
+        <v>3.214119614501542</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.75795179858968</v>
+        <v>-1.75345010390276</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7273047684908871</v>
+        <v>0.7258456527654413</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.662101553757021</v>
       </c>
       <c r="E37" t="n">
-        <v>3.031166649975399</v>
+        <v>3.027820285323514</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.683475509846217</v>
+        <v>-1.678659011335037</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6662658809859677</v>
+        <v>0.6646682515778475</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.539701708871614</v>
       </c>
       <c r="E38" t="n">
-        <v>2.79723435414857</v>
+        <v>2.793758919928738</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.615278770387182</v>
+        <v>-1.610704670820683</v>
       </c>
       <c r="G38" t="n">
-        <v>0.586186084170674</v>
+        <v>0.5844735513666988</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.423242609430276</v>
       </c>
       <c r="E39" t="n">
-        <v>2.548857284845564</v>
+        <v>2.545277965363726</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.564712619105837</v>
+        <v>-1.560114122242957</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5282228300287761</v>
+        <v>0.5269069500433687</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.316524449065254</v>
       </c>
       <c r="E40" t="n">
-        <v>2.302861706473086</v>
+        <v>2.299549970241869</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.494990655118263</v>
+        <v>-1.490664463563368</v>
       </c>
       <c r="G40" t="n">
-        <v>0.501001743345002</v>
+        <v>0.4997330839332336</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.219655970153264</v>
       </c>
       <c r="E41" t="n">
-        <v>2.101445497654086</v>
+        <v>2.098012561950529</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.471664478750147</v>
+        <v>-1.467630267742253</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4279499419063158</v>
+        <v>0.4263633306320447</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.130029053727426</v>
       </c>
       <c r="E42" t="n">
-        <v>1.896895416764576</v>
+        <v>1.893780432923522</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.436423764643346</v>
+        <v>-1.432419459998757</v>
       </c>
       <c r="G42" t="n">
-        <v>0.411466813668055</v>
+        <v>0.4102201905239848</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.047737304527116</v>
       </c>
       <c r="E43" t="n">
-        <v>1.751733077321741</v>
+        <v>1.748772347354575</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.401478179121789</v>
+        <v>-1.397637572465815</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3662987609632105</v>
+        <v>0.3650175093984717</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9709696535517249</v>
       </c>
       <c r="E44" t="n">
-        <v>1.516777669066067</v>
+        <v>1.513673703358862</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.36143591968546</v>
+        <v>-1.357751927932056</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3131740416001909</v>
+        <v>0.3119305664943634</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8975370757860707</v>
       </c>
       <c r="E45" t="n">
-        <v>1.318507924470547</v>
+        <v>1.315199336277573</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.30689458311327</v>
+        <v>-1.303375863367602</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2960864900193507</v>
+        <v>0.2950130089786236</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.827242776753458</v>
       </c>
       <c r="E46" t="n">
-        <v>1.15895432820166</v>
+        <v>1.155680368429354</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.261610052993449</v>
+        <v>-1.258024437435126</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2730916446762689</v>
+        <v>0.2720874204768791</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7602207633402261</v>
       </c>
       <c r="E47" t="n">
-        <v>1.011821316818957</v>
+        <v>1.008836976564971</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.183437967353172</v>
+        <v>-1.1797933260778</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2439943271999044</v>
+        <v>0.2432875926144404</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6954207664916354</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8639705527169406</v>
+        <v>0.8609862124629545</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.164430112444345</v>
+        <v>-1.161004259826834</v>
       </c>
       <c r="G48" t="n">
-        <v>0.20457459232605</v>
+        <v>0.2039685949643492</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6319650365186426</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7336087150716963</v>
+        <v>0.7309439006993342</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.083484605112335</v>
+        <v>-1.079905285630498</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1648337575514502</v>
+        <v>0.1643946062166073</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5707081079714359</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6005505826716639</v>
+        <v>0.5976370732781364</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.026198966202158</v>
+        <v>-1.022663719255716</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1222565403202666</v>
+        <v>0.1218724796546692</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5117429963782618</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4827289553658223</v>
+        <v>0.4798028538193244</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9650286481006095</v>
+        <v>-0.9615185854601089</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1018194760492985</v>
+        <v>0.1014432854793076</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4545698707039146</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3636040402275437</v>
+        <v>0.3606448842794984</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9385969320061677</v>
+        <v>-0.9351356639584275</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05985927431366473</v>
+        <v>0.05949095383928037</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4000666920468884</v>
       </c>
       <c r="E53" t="n">
-        <v>0.204203123813423</v>
+        <v>0.2008378709320821</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9195575967149145</v>
+        <v>-0.9163261354588843</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02259751965511355</v>
+        <v>0.02226540162051911</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3481109673980411</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1008782126147607</v>
+        <v>0.09768610183676286</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8722260547278422</v>
+        <v>-0.8687939060338461</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01417314103759182</v>
+        <v>-0.0148106187817186</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2982613651883524</v>
       </c>
       <c r="E55" t="n">
-        <v>0.005579224915610513</v>
+        <v>0.002697195904508954</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.845590503157192</v>
+        <v>-0.8420355809717344</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04242048818845396</v>
+        <v>-0.04294621057496839</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2510738523965801</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.0914999784097307</v>
+        <v>-0.09452839119911323</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8437032542307525</v>
+        <v>-0.8401624982173866</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04835768831400016</v>
+        <v>-0.04865832596616858</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2067284524831812</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.225075963100671</v>
+        <v>-0.2280382670869589</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8317926515398701</v>
+        <v>-0.828169259522636</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.09026122536126707</v>
+        <v>-0.09081685411108621</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1645004135182682</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3132619583906633</v>
+        <v>-0.3162274104151938</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7814114475052778</v>
+        <v>-0.7770388223863045</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1222090914663071</v>
+        <v>-0.1228324030383422</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1240584497118828</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4336272005965269</v>
+        <v>-0.4366099668313917</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.834471632084324</v>
+        <v>-0.8303414059100309</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1493105526968624</v>
+        <v>-0.1499039579055927</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.08479255184883636</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4945055381510736</v>
+        <v>-0.4974662681182402</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8066099196181805</v>
+        <v>-0.8021192430651096</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.167761204836749</v>
+        <v>-0.1683687762175711</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.04553816193444485</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5943770513976022</v>
+        <v>-0.5974999053342628</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8259247082556612</v>
+        <v>-0.8214655120850164</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2006251500703861</v>
+        <v>-0.2014105856119151</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.004902972296548223</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6835735669634696</v>
+        <v>-0.6868900252520501</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8676787134864046</v>
+        <v>-0.8633958074573453</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2258047339538332</v>
+        <v>-0.2265445229408445</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.03791838725845525</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7673381425417283</v>
+        <v>-0.7706467307347024</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8690252868446773</v>
+        <v>-0.8646951602419791</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2395175885386048</v>
+        <v>-0.2403518186728942</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.08282187876029094</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8171826060559572</v>
+        <v>-0.8206123937212714</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8769040395563479</v>
+        <v>-0.8724692406820832</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2664522037423022</v>
+        <v>-0.2673147662207749</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1288859704361263</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8948352653862053</v>
+        <v>-0.8979203428639547</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8796774612480797</v>
+        <v>-0.8753772410086862</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2783486402610927</v>
+        <v>-0.2792049066630803</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1730421601508329</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9232785779176694</v>
+        <v>-0.9264667536478639</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.8904154196935931</v>
+        <v>-0.8860585347658327</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2928201720623313</v>
+        <v>-0.2938432844911767</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2122693449322372</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9934239530488739</v>
+        <v>-0.9967396243278939</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8658316020475582</v>
+        <v>-0.861420413460113</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2865540019404332</v>
+        <v>-0.2873158271951428</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2440398388391241</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.01451266123606</v>
+        <v>-1.017844859715854</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9209899541152982</v>
+        <v>-0.916628347130174</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3080236227549746</v>
+        <v>-0.3091254361398851</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2660351194193192</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.026583813877316</v>
+        <v>-1.029777498674435</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9017420612904727</v>
+        <v>-0.8970522713185574</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3251458027564835</v>
+        <v>-0.3260729000189296</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.277107011425333</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.030444095772305</v>
+        <v>-1.033324550764286</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9356110177330603</v>
+        <v>-0.9310636764916226</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3249222920412588</v>
+        <v>-0.3259013319347078</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2768061999795782</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9969442468136629</v>
+        <v>-0.9998428030255381</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9795474004754871</v>
+        <v>-0.9748827948095125</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3213665828462405</v>
+        <v>-0.3222480335541689</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2652438092154577</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9338638565084165</v>
+        <v>-0.9365932056647519</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.037333577466238</v>
+        <v>-1.032805124454256</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2947263092182264</v>
+        <v>-0.2954173036124774</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2432579112941077</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8638569950598864</v>
+        <v>-0.8663352881663744</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.074494594901027</v>
+        <v>-1.070233725139666</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2984803448225286</v>
+        <v>-0.2993964239511255</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2123326498871547</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8052531151356193</v>
+        <v>-0.8076786786015436</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.119631954233006</v>
+        <v>-1.115359279328235</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2952724938533178</v>
+        <v>-0.2961350563317905</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1744423709457667</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6818799223889501</v>
+        <v>-0.6837577272006619</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.160547794281656</v>
+        <v>-1.156638717793906</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2639872897983453</v>
+        <v>-0.2650513267243446</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.131640737014123</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5388362126833862</v>
+        <v>-0.5408304949100742</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.222913579905832</v>
+        <v>-1.218947838729715</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2340400019964784</v>
+        <v>-0.2349733953354097</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.08599196226261721</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4184064356935492</v>
+        <v>-0.4203912738055094</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.221966020394809</v>
+        <v>-1.218015232400345</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1962729871999897</v>
+        <v>-0.1970804590092169</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.0393440249807822</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2835004048451099</v>
+        <v>-0.2853734875994577</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.255277774068456</v>
+        <v>-1.251399390953571</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1748584570546938</v>
+        <v>-0.1756580587683146</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.006744997189825921</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1359125019363509</v>
+        <v>-0.1376596631609947</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.276569530722291</v>
+        <v>-1.272674620406632</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1384482467407663</v>
+        <v>-0.1390369298921328</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.05100838981867305</v>
       </c>
       <c r="E80" t="n">
-        <v>0.005566632762640108</v>
+        <v>0.003767528906993422</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.263073890776259</v>
+        <v>-1.259165601298069</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1114522447913382</v>
+        <v>-0.1118945441644237</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.09207093876323019</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1589894245540608</v>
+        <v>0.1574327196430944</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.302766717967659</v>
+        <v>-1.299204712696155</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.09249633251351404</v>
+        <v>-0.09321880729019105</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.128350865606125</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2702977607359602</v>
+        <v>0.2687442038632364</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.30710077961816</v>
+        <v>-1.303807931616399</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.0207730032132056</v>
+        <v>-0.02101540215788591</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1582601082473218</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4319227661684787</v>
+        <v>0.4304730945577608</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.285654769090438</v>
+        <v>-1.282366643146041</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.008072242923430352</v>
+        <v>-0.008560188851033565</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1804508225133199</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5651257083276707</v>
+        <v>0.5636681666213463</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.286410298268663</v>
+        <v>-1.283444846244132</v>
       </c>
       <c r="G84" t="n">
-        <v>0.07251911010628616</v>
+        <v>0.07286854235121491</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1941252693955122</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7031073725391316</v>
+        <v>0.7016734411196267</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.234569191499064</v>
+        <v>-1.23178081662568</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1124456791371994</v>
+        <v>0.1129761235810777</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1982034398149993</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8890431033001392</v>
+        <v>0.8875241748480841</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.194745720720596</v>
+        <v>-1.192201318811013</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1565733052028642</v>
+        <v>0.1572280971573253</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1918456391113919</v>
       </c>
       <c r="E87" t="n">
-        <v>1.011632434524401</v>
+        <v>1.010327572672842</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.061142977704593</v>
+        <v>-1.058745746582852</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1871911251504052</v>
+        <v>0.1881260925084578</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1739756055054505</v>
       </c>
       <c r="E88" t="n">
-        <v>1.146721051590911</v>
+        <v>1.145644422511941</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9468817816511339</v>
+        <v>-0.9446773678717523</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2188902962342797</v>
+        <v>0.2199181307204891</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1435845480267323</v>
       </c>
       <c r="E89" t="n">
-        <v>1.25140906334862</v>
+        <v>1.250384376900653</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8620185407262073</v>
+        <v>-0.8600234714899587</v>
       </c>
       <c r="G89" t="n">
-        <v>0.230800898925162</v>
+        <v>0.23186336183204</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1008484444875396</v>
       </c>
       <c r="E90" t="n">
-        <v>1.328828767848915</v>
+        <v>1.328046480345629</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7456308448398705</v>
+        <v>-0.7439545144756853</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1983493467013057</v>
+        <v>0.1991048758795301</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.0462044944326571</v>
       </c>
       <c r="E91" t="n">
-        <v>1.320335360670377</v>
+        <v>1.319505852593451</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6048600187454648</v>
+        <v>-0.6033143319683476</v>
       </c>
       <c r="G91" t="n">
-        <v>0.193372298239753</v>
+        <v>0.1942993955021991</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.01799156506449358</v>
       </c>
       <c r="E92" t="n">
-        <v>1.306671300678365</v>
+        <v>1.305997620494449</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.473207485420754</v>
+        <v>-0.4718758652441336</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1685138142570512</v>
+        <v>0.1691953645365744</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.08866494810112385</v>
       </c>
       <c r="E93" t="n">
-        <v>1.27613218168689</v>
+        <v>1.275754417097777</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3375317592219986</v>
+        <v>-0.336340226747174</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1617345139016091</v>
+        <v>0.162482172984227</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1608740756950439</v>
       </c>
       <c r="E94" t="n">
-        <v>1.195296855693371</v>
+        <v>1.194602713260878</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1884784445113087</v>
+        <v>-0.1876410663387767</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1430398887979209</v>
+        <v>0.1437324572112932</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2291628365499545</v>
       </c>
       <c r="E95" t="n">
-        <v>1.162689475576506</v>
+        <v>1.162097644386897</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.0958521412801271</v>
+        <v>-0.0956034462589616</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1248930223484453</v>
+        <v>0.1259602073126871</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2897592115938652</v>
       </c>
       <c r="E96" t="n">
-        <v>1.121812198996328</v>
+        <v>1.121454896655792</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01076876595853888</v>
+        <v>0.01110088399313333</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0570323359718087</v>
+        <v>0.05776897692057742</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.340612461916709</v>
       </c>
       <c r="E97" t="n">
-        <v>1.027229389997369</v>
+        <v>1.026568301966423</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06655829969392046</v>
+        <v>0.06682745696366288</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03249967394721617</v>
+        <v>0.03311511542364474</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3834246872948081</v>
       </c>
       <c r="E98" t="n">
-        <v>1.00256765840483</v>
+        <v>1.002318963383665</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1004264691269474</v>
+        <v>0.1003603603238527</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.006872840352999228</v>
+        <v>-0.006137773423351807</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4195299635469375</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9778146337032555</v>
+        <v>0.9777375067663117</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1653390176893877</v>
+        <v>0.1657655768712602</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02448611432035392</v>
+        <v>-0.0237400292568574</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4525453366505323</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8873132562858298</v>
+        <v>0.8872203891576731</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1541870922149723</v>
+        <v>0.154541246517265</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.03521777668938202</v>
+        <v>-0.03454567052458662</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4820576001030572</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8058105461848802</v>
+        <v>0.8055413889151378</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1419522415851021</v>
+        <v>0.1422025106253889</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06408371335491533</v>
+        <v>-0.06352021450948968</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.5103614958009054</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6836682363910681</v>
+        <v>0.6828812268304177</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1370113955633392</v>
+        <v>0.1370318578119162</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08194883038167813</v>
+        <v>-0.08135699919206907</v>
       </c>
     </row>
   </sheetData>
